--- a/data/trans_camb/P18_6_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_6_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>13,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-8,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,02</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-5,86</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 22,43</t>
+          <t>-26,77; 52,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 26,33</t>
+          <t>-22,44; 51,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 4,63</t>
+          <t>-45,97; 11,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -1,87</t>
+          <t>-43,24; 15,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 4,99</t>
+          <t>-21,0; 6,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 5,42</t>
+          <t>-18,34; 12,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 6,63</t>
+          <t>-20,08; 9,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 11,71</t>
+          <t>-15,18; 18,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 3,05</t>
+          <t>-18,84; 22,65</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; 27,49</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-27,15; 6,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-22,91; 10,42</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>56,94%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-48,31%</t>
+          <t>-49,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-54,1%</t>
+          <t>-31,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,61%</t>
+          <t>-34,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,3%</t>
+          <t>-9,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-35,29%</t>
+          <t>-18,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-24,82%</t>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-32,86%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-8,84%</t>
         </is>
       </c>
     </row>
@@ -796,7 +865,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +875,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-78,19; -10,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,95; 37,06</t>
+          <t>-80,13; 71,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,65; 42,35</t>
+          <t>-66,0; 118,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,17; 80,37</t>
+          <t>-71,6; 109,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,72; 115,78</t>
+          <t>-57,47; 164,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,96; 31,7</t>
+          <t>-79,89; 267,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-60,16; 284,07</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-80,31; 78,74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-69,31; 106,32</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 2,19</t>
+          <t>-3,73; 6,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,5</t>
+          <t>-4,38; 5,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 3,8</t>
+          <t>-3,46; 6,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 0,63</t>
+          <t>-2,96; 7,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 4,49</t>
+          <t>-14,6; 0,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 3,8</t>
+          <t>-11,06; 4,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 0,27</t>
+          <t>-9,94; 6,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 1,26</t>
+          <t>-8,39; 8,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,27</t>
+          <t>-8,55; 1,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 3,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 3,82</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 5,96</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-24,39%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-42,36%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-30,62%</t>
+          <t>47,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,08%</t>
+          <t>-37,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,9%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-29,2%</t>
+          <t>-11,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,78%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-14,57%</t>
+          <t>-25,62%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-13,76%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-6,26%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,4; 52,05</t>
+          <t>-56,34; 242,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,78; 15,73</t>
+          <t>-65,83; 229,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 86,12</t>
+          <t>-50,53; 279,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,6; 5,59</t>
+          <t>-48,46; 321,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 33,87</t>
+          <t>-62,54; 3,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,49; 30,07</t>
+          <t>-46,91; 31,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 4,03</t>
+          <t>-43,15; 43,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 13,35</t>
+          <t>-36,59; 56,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 24,97</t>
+          <t>-54,11; 18,26</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-42,55; 34,74</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-38,38; 39,38</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-29,88; 61,51</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,37</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-9,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-6,98</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,99</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,14</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 1,23</t>
+          <t>-9,59; 0,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 2,22</t>
+          <t>-7,29; 4,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 4,44</t>
+          <t>-5,7; 7,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,61; -3,61</t>
+          <t>-1,98; 13,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 5,2</t>
+          <t>-15,48; -3,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 2,72</t>
+          <t>-9,19; 4,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,98; -2,52</t>
+          <t>-12,35; 0,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 2,06</t>
+          <t>-6,93; 7,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 1,59</t>
+          <t>-10,9; -2,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 3,01</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 1,12</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 7,79</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,15%</t>
+          <t>-55,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-34,28%</t>
+          <t>-11,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,58%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-58,7%</t>
+          <t>83,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,57%</t>
+          <t>-70,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,94%</t>
+          <t>-21,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-53,78%</t>
+          <t>-45,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-17,11%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,89%</t>
+          <t>-66,62%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-19,03%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-30,02%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>22,04%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,3; 36,86</t>
+          <t>-92,23; 41,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-72,9; 45,41</t>
+          <t>-77,9; 154,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 91,65</t>
+          <t>-64,39; 229,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-80,04; -29,79</t>
+          <t>-29,01; 356,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,39; 46,79</t>
+          <t>-88,29; -32,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,12; 26,24</t>
+          <t>-54,23; 55,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-72,22; -26,63</t>
+          <t>-71,92; 6,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 26,11</t>
+          <t>-39,86; 76,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 16,38</t>
+          <t>-83,56; -34,35</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-49,7; 42,25</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-59,12; 16,04</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-20,6; 95,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 2,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 3,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -3,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 1,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -1,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 1,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 0,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-23,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-21,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-44,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-15,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-17,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,54; 61,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 64,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 43,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,67; -21,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 14,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,37; 8,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-53,26; -14,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 12,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 3,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-8,2</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,91</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-4,21</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 10,03</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 10,26</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,77; 4,08</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 7,13</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-13,26; -3,67</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 2,34</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 1,41</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; 6,38</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; 0,08</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 3,77</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 0,88</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 5,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>23,24%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,91%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>33,7%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-48,32%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-16,57%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-23,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-34,07%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-6,54%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-18,6%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-62,68; 226,18</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-56,39; 226,72</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-63,11; 93,3</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-47,47; 163,92</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-65,71; -23,52</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-41,38; 15,74</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-44,93; 10,32</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-24,29; 46,02</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-55,8; 3,35</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-33,51; 36,52</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-42,54; 8,95</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-20,09; 51,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
